--- a/Code/Results/Cases/Case_6_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.402016670179535</v>
+        <v>1.161207584106904</v>
       </c>
       <c r="C2">
-        <v>0.262516432669031</v>
+        <v>0.11918369565457</v>
       </c>
       <c r="D2">
-        <v>0.06052309749052398</v>
+        <v>0.0699658309173401</v>
       </c>
       <c r="E2">
-        <v>0.04587145782580926</v>
+        <v>0.07675859600700718</v>
       </c>
       <c r="F2">
-        <v>2.23329020587046</v>
+        <v>0.6746043222081681</v>
       </c>
       <c r="G2">
-        <v>0.0008107455147391418</v>
+        <v>0.0008190404351931904</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5293773061948741</v>
+        <v>0.9284288657635216</v>
       </c>
       <c r="L2">
-        <v>0.2926330959384131</v>
+        <v>0.2467539116512398</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.826818066220056</v>
+        <v>2.149866875507428</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.082745050098936</v>
+        <v>1.009231407086276</v>
       </c>
       <c r="C3">
-        <v>0.2339079513149329</v>
+        <v>0.1201466971544001</v>
       </c>
       <c r="D3">
-        <v>0.0617290620974984</v>
+        <v>0.06542982372281614</v>
       </c>
       <c r="E3">
-        <v>0.04379043196643551</v>
+        <v>0.07197474608016208</v>
       </c>
       <c r="F3">
-        <v>2.033160981405928</v>
+        <v>0.6492829919228313</v>
       </c>
       <c r="G3">
-        <v>0.0008187992441630373</v>
+        <v>0.0008231012644864255</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4569043181500589</v>
+        <v>0.8088205663661654</v>
       </c>
       <c r="L3">
-        <v>0.2569368500670635</v>
+        <v>0.2174410105513118</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.674584171311665</v>
+        <v>2.117123583452724</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.889801887470071</v>
+        <v>0.916314961505833</v>
       </c>
       <c r="C4">
-        <v>0.2164386903290136</v>
+        <v>0.1207833739911024</v>
       </c>
       <c r="D4">
-        <v>0.06252133811213412</v>
+        <v>0.06263177400423103</v>
       </c>
       <c r="E4">
-        <v>0.04257862876852059</v>
+        <v>0.06915057445797501</v>
       </c>
       <c r="F4">
-        <v>1.914377009429998</v>
+        <v>0.634983026691998</v>
       </c>
       <c r="G4">
-        <v>0.0008238767208644241</v>
+        <v>0.0008256774120044589</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4130115967000165</v>
+        <v>0.7354738374040579</v>
       </c>
       <c r="L4">
-        <v>0.2354779726713474</v>
+        <v>0.1996665190342526</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.584476045423912</v>
+        <v>2.101142970982806</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.811853317202207</v>
+        <v>0.8785339720154752</v>
       </c>
       <c r="C5">
-        <v>0.209336007185783</v>
+        <v>0.1210541765037227</v>
       </c>
       <c r="D5">
-        <v>0.06285641219527349</v>
+        <v>0.06148808657256666</v>
       </c>
       <c r="E5">
-        <v>0.04210023665723384</v>
+        <v>0.06802666807929114</v>
       </c>
       <c r="F5">
-        <v>1.866901671334588</v>
+        <v>0.6294543105477644</v>
       </c>
       <c r="G5">
-        <v>0.0008259806234430749</v>
+        <v>0.0008267484031369523</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3952552428780152</v>
+        <v>0.7055964998677808</v>
       </c>
       <c r="L5">
-        <v>0.2268357589479848</v>
+        <v>0.1924744063942825</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.54852174291517</v>
+        <v>2.095622747811262</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.798948160791127</v>
+        <v>0.8722650220287562</v>
       </c>
       <c r="C6">
-        <v>0.2081573669384795</v>
+        <v>0.1210998269761987</v>
       </c>
       <c r="D6">
-        <v>0.06291276644102339</v>
+        <v>0.06129796337364724</v>
       </c>
       <c r="E6">
-        <v>0.04202169960689339</v>
+        <v>0.06784163104765639</v>
       </c>
       <c r="F6">
-        <v>1.859071829427108</v>
+        <v>0.6285538824640042</v>
       </c>
       <c r="G6">
-        <v>0.0008263321174435421</v>
+        <v>0.0008269275308274124</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3923140717184594</v>
+        <v>0.7006357982430274</v>
       </c>
       <c r="L6">
-        <v>0.2254065560764076</v>
+        <v>0.1912831052838158</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.542595559617695</v>
+        <v>2.094764760800388</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.888748029355725</v>
+        <v>0.9158051183799785</v>
       </c>
       <c r="C7">
-        <v>0.2163428456909315</v>
+        <v>0.1207869802432953</v>
       </c>
       <c r="D7">
-        <v>0.06252580859780821</v>
+        <v>0.0626163641089903</v>
       </c>
       <c r="E7">
-        <v>0.04257211600588207</v>
+        <v>0.06913530978235016</v>
       </c>
       <c r="F7">
-        <v>1.913733100881359</v>
+        <v>0.6349072746683575</v>
       </c>
       <c r="G7">
-        <v>0.0008239049520909694</v>
+        <v>0.0008256917694911217</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4127716286439593</v>
+        <v>0.7350708669690391</v>
       </c>
       <c r="L7">
-        <v>0.2353610222335476</v>
+        <v>0.1995693232195634</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.583988155411518</v>
+        <v>2.101064564536813</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.291227439367162</v>
+        <v>1.108713268702161</v>
       </c>
       <c r="C8">
-        <v>0.2526271100403221</v>
+        <v>0.1195062783268028</v>
       </c>
       <c r="D8">
-        <v>0.06092764748457924</v>
+        <v>0.06840436530657001</v>
       </c>
       <c r="E8">
-        <v>0.04513950579376846</v>
+        <v>0.07508472841997715</v>
       </c>
       <c r="F8">
-        <v>2.163372769996045</v>
+        <v>0.6656053298735571</v>
       </c>
       <c r="G8">
-        <v>0.0008134958785340762</v>
+        <v>0.0008204236583668466</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5042489379222488</v>
+        <v>0.8871614644791919</v>
       </c>
       <c r="L8">
-        <v>0.2802217036821872</v>
+        <v>0.2365972076724887</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.773579107326313</v>
+        <v>2.13769328156593</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.110022441680144</v>
+        <v>1.490981348670914</v>
       </c>
       <c r="C9">
-        <v>0.3249540688873935</v>
+        <v>0.1173581352943138</v>
       </c>
       <c r="D9">
-        <v>0.05824579064072566</v>
+        <v>0.079662870603606</v>
       </c>
       <c r="E9">
-        <v>0.05075488472367518</v>
+        <v>0.08772027619419731</v>
       </c>
       <c r="F9">
-        <v>2.690391962352351</v>
+        <v>0.7364216982911529</v>
       </c>
       <c r="G9">
-        <v>0.0007940611470834232</v>
+        <v>0.0008107318777545437</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.689553213609031</v>
+        <v>1.186713030744102</v>
       </c>
       <c r="L9">
-        <v>0.3724783366708948</v>
+        <v>0.3112322735679527</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.176064666126877</v>
+        <v>2.24439374167747</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.737436069014791</v>
+        <v>1.775500863698653</v>
       </c>
       <c r="C10">
-        <v>0.3794532491180007</v>
+        <v>0.1160063101619926</v>
       </c>
       <c r="D10">
-        <v>0.05661625210273868</v>
+        <v>0.08789554224323126</v>
       </c>
       <c r="E10">
-        <v>0.05532343470401457</v>
+        <v>0.09769975553848198</v>
       </c>
       <c r="F10">
-        <v>3.108180023602074</v>
+        <v>0.7959891603818647</v>
       </c>
       <c r="G10">
-        <v>0.0007802644461284387</v>
+        <v>0.0008039744743474068</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.83104262196089</v>
+        <v>1.408443525318063</v>
       </c>
       <c r="L10">
-        <v>0.4438775398404431</v>
+        <v>0.3676715383457605</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.496719099836241</v>
+        <v>2.347228101633107</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.030491049699037</v>
+        <v>1.906031402037996</v>
       </c>
       <c r="C11">
-        <v>0.4047097881692423</v>
+        <v>0.1154417478798706</v>
       </c>
       <c r="D11">
-        <v>0.05596626305606733</v>
+        <v>0.09163649422481512</v>
       </c>
       <c r="E11">
-        <v>0.05752058362940105</v>
+        <v>0.1024159661560482</v>
       </c>
       <c r="F11">
-        <v>3.306867447096806</v>
+        <v>0.8249789705544401</v>
       </c>
       <c r="G11">
-        <v>0.000774063694191832</v>
+        <v>0.000800973006445985</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.8970187800520506</v>
+        <v>1.509879281131418</v>
       </c>
       <c r="L11">
-        <v>0.4774024907658259</v>
+        <v>0.3937844817424718</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.649608740816788</v>
+        <v>2.400077380344726</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.142755185902558</v>
+        <v>1.955644639595306</v>
       </c>
       <c r="C12">
-        <v>0.4143568485750961</v>
+        <v>0.1152353276313605</v>
       </c>
       <c r="D12">
-        <v>0.05573498247962405</v>
+        <v>0.09305286073272612</v>
       </c>
       <c r="E12">
-        <v>0.05837183604601748</v>
+        <v>0.1042294874303167</v>
       </c>
       <c r="F12">
-        <v>3.383536650439623</v>
+        <v>0.8362515108360498</v>
       </c>
       <c r="G12">
-        <v>0.0007717237329665763</v>
+        <v>0.0007998463136746265</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9222769859619433</v>
+        <v>1.548390452182218</v>
       </c>
       <c r="L12">
-        <v>0.4902724588252738</v>
+        <v>0.4037436957079734</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.708667118519415</v>
+        <v>2.42103113665317</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.118516372971271</v>
+        <v>1.944950918802419</v>
       </c>
       <c r="C13">
-        <v>0.412275210439816</v>
+        <v>0.1152794542137556</v>
       </c>
       <c r="D13">
-        <v>0.05578410176273962</v>
+        <v>0.09274782624616051</v>
       </c>
       <c r="E13">
-        <v>0.05818761092012181</v>
+        <v>0.1038376489325117</v>
       </c>
       <c r="F13">
-        <v>3.366957664993464</v>
+        <v>0.8338102815832826</v>
       </c>
       <c r="G13">
-        <v>0.0007722273709252319</v>
+        <v>0.0008000885357447017</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9168242320506295</v>
+        <v>1.540091652621982</v>
       </c>
       <c r="L13">
-        <v>0.4874924823704987</v>
+        <v>0.4015955217876126</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.695893499025715</v>
+        <v>2.416475385719622</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.039700034728639</v>
+        <v>1.910109267369563</v>
       </c>
       <c r="C14">
-        <v>0.4055016944744523</v>
+        <v>0.1154246171769273</v>
       </c>
       <c r="D14">
-        <v>0.0559469268729913</v>
+        <v>0.0917530225084775</v>
       </c>
       <c r="E14">
-        <v>0.05759021785823393</v>
+        <v>0.1025645993544657</v>
       </c>
       <c r="F14">
-        <v>3.313145226928299</v>
+        <v>0.8259003269815679</v>
       </c>
       <c r="G14">
-        <v>0.0007738710380467519</v>
+        <v>0.0008008801175304547</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.899091022539281</v>
+        <v>1.513045514470633</v>
       </c>
       <c r="L14">
-        <v>0.4784576558903098</v>
+        <v>0.3946023666459837</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.654443268215942</v>
+        <v>2.401781993707516</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.991596940409806</v>
+        <v>1.88879253171217</v>
       </c>
       <c r="C15">
-        <v>0.4013640415504653</v>
+        <v>0.1155144969058952</v>
       </c>
       <c r="D15">
-        <v>0.05604865248417923</v>
+        <v>0.09114365450584216</v>
       </c>
       <c r="E15">
-        <v>0.05722687107580882</v>
+        <v>0.1017884817942658</v>
       </c>
       <c r="F15">
-        <v>3.280375887882911</v>
+        <v>0.8210943331686025</v>
       </c>
       <c r="G15">
-        <v>0.0007748788037842406</v>
+        <v>0.0008013662569758924</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.8882660258203003</v>
+        <v>1.496492502415521</v>
       </c>
       <c r="L15">
-        <v>0.4729471087897252</v>
+        <v>0.3903283187515996</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.629210048232466</v>
+        <v>2.39290650468817</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.718453836424942</v>
+        <v>1.76699470657681</v>
       </c>
       <c r="C16">
-        <v>0.3778133541336786</v>
+        <v>0.1160442297148663</v>
       </c>
       <c r="D16">
-        <v>0.05666070933655831</v>
+        <v>0.08765100779883284</v>
       </c>
       <c r="E16">
-        <v>0.05518241558958081</v>
+        <v>0.09739527741021448</v>
       </c>
       <c r="F16">
-        <v>3.095384684237928</v>
+        <v>0.7941345823398365</v>
       </c>
       <c r="G16">
-        <v>0.0007806709731725944</v>
+        <v>0.0008041720419879263</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.8267668836945035</v>
+        <v>1.401827406370558</v>
       </c>
       <c r="L16">
-        <v>0.4417096608021183</v>
+        <v>0.3659744692598679</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.486881313428285</v>
+        <v>2.343902118023806</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.552975400402545</v>
+        <v>1.692575481849161</v>
       </c>
       <c r="C17">
-        <v>0.3634955736943368</v>
+        <v>0.1163821924155499</v>
       </c>
       <c r="D17">
-        <v>0.05706071895749076</v>
+        <v>0.08550755940018462</v>
       </c>
       <c r="E17">
-        <v>0.05396010433244314</v>
+        <v>0.09474692083227865</v>
       </c>
       <c r="F17">
-        <v>2.984236999671367</v>
+        <v>0.7780958946435277</v>
       </c>
       <c r="G17">
-        <v>0.000784241771096053</v>
+        <v>0.0008059115058670909</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.7894806657875932</v>
+        <v>1.343911497979434</v>
       </c>
       <c r="L17">
-        <v>0.422830660140491</v>
+        <v>0.3511518126215094</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.401468422866571</v>
+        <v>2.315440945977258</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.458502987504232</v>
+        <v>1.649873503524503</v>
       </c>
       <c r="C18">
-        <v>0.3553030060517415</v>
+        <v>0.1165813146198893</v>
       </c>
       <c r="D18">
-        <v>0.05729926951015329</v>
+        <v>0.08427429347552362</v>
       </c>
       <c r="E18">
-        <v>0.05326811127228304</v>
+        <v>0.09324012719772412</v>
       </c>
       <c r="F18">
-        <v>2.921107780806807</v>
+        <v>0.7690475278472348</v>
       </c>
       <c r="G18">
-        <v>0.0007863028813639069</v>
+        <v>0.0008069188580470403</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.768183481149876</v>
+        <v>1.310652254915595</v>
       </c>
       <c r="L18">
-        <v>0.4120686891356655</v>
+        <v>0.3426669832337552</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.352991958403734</v>
+        <v>2.299637751697361</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.426632128181268</v>
+        <v>1.635432109570957</v>
       </c>
       <c r="C19">
-        <v>0.3525360102875652</v>
+        <v>0.1166495437042698</v>
       </c>
       <c r="D19">
-        <v>0.05738144583399674</v>
+        <v>0.08385665021445021</v>
       </c>
       <c r="E19">
-        <v>0.05303565068919092</v>
+        <v>0.09273271671000671</v>
       </c>
       <c r="F19">
-        <v>2.899865332537672</v>
+        <v>0.7660135851720327</v>
       </c>
       <c r="G19">
-        <v>0.0007870020658825323</v>
+        <v>0.0008072611236504988</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.7609969755893715</v>
+        <v>1.29939973678259</v>
       </c>
       <c r="L19">
-        <v>0.4084407869256665</v>
+        <v>0.3398009408246736</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.336686092411085</v>
+        <v>2.294382435684014</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.570516440807125</v>
+        <v>1.700486798869235</v>
       </c>
       <c r="C20">
-        <v>0.3650152026996096</v>
+        <v>0.1163457248124544</v>
       </c>
       <c r="D20">
-        <v>0.05701724836724509</v>
+        <v>0.08573577329138971</v>
       </c>
       <c r="E20">
-        <v>0.05408906332203145</v>
+        <v>0.09502712267457625</v>
       </c>
       <c r="F20">
-        <v>2.99598477070225</v>
+        <v>0.7797847977637389</v>
       </c>
       <c r="G20">
-        <v>0.0007838609185348221</v>
+        <v>0.0008057256308871219</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.7934341490870622</v>
+        <v>1.350071191990878</v>
       </c>
       <c r="L20">
-        <v>0.4248301829591838</v>
+        <v>0.3527254356866507</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.410492374772815</v>
+        <v>2.318411534819461</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.062813624795353</v>
+        <v>1.920337891594244</v>
       </c>
       <c r="C21">
-        <v>0.4074888489108162</v>
+        <v>0.115381778328647</v>
       </c>
       <c r="D21">
-        <v>0.05589868289813538</v>
+        <v>0.09204522440974472</v>
       </c>
       <c r="E21">
-        <v>0.05776514611470063</v>
+        <v>0.1029377575261492</v>
       </c>
       <c r="F21">
-        <v>3.328910789740632</v>
+        <v>0.8282154850674459</v>
       </c>
       <c r="G21">
-        <v>0.0007733880560127274</v>
+        <v>0.0008006473465244985</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.9042918788788512</v>
+        <v>1.520986767844221</v>
       </c>
       <c r="L21">
-        <v>0.4811064483891272</v>
+        <v>0.3966544393797022</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.666585343996047</v>
+        <v>2.406071695977687</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.392188640384063</v>
+        <v>2.06511010750728</v>
       </c>
       <c r="C22">
-        <v>0.4357405704613768</v>
+        <v>0.1147947899214827</v>
       </c>
       <c r="D22">
-        <v>0.0552552332599987</v>
+        <v>0.09616753361350305</v>
       </c>
       <c r="E22">
-        <v>0.0602810176419446</v>
+        <v>0.1082698014723924</v>
       </c>
       <c r="F22">
-        <v>3.554941958124857</v>
+        <v>0.8615973507914703</v>
       </c>
       <c r="G22">
-        <v>0.0007665892969348498</v>
+        <v>0.0007973858162100333</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.9783676717579226</v>
+        <v>1.633280085346541</v>
       </c>
       <c r="L22">
-        <v>0.5189188480219968</v>
+        <v>0.4257813351362074</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.840817967952205</v>
+        <v>2.468882175772961</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.21562669530698</v>
+        <v>1.987733959798277</v>
       </c>
       <c r="C23">
-        <v>0.4206110631955653</v>
+        <v>0.1151040985642595</v>
       </c>
       <c r="D23">
-        <v>0.05558999600894765</v>
+        <v>0.09396737593797866</v>
       </c>
       <c r="E23">
-        <v>0.05892709938403229</v>
+        <v>0.1054083937607082</v>
       </c>
       <c r="F23">
-        <v>3.433463090028283</v>
+        <v>0.8436146495985355</v>
       </c>
       <c r="G23">
-        <v>0.0007702147168280963</v>
+        <v>0.0007991214860920977</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9386678218254758</v>
+        <v>1.573286795954829</v>
       </c>
       <c r="L23">
-        <v>0.498634222966686</v>
+        <v>0.4101949131724609</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.747143179693694</v>
+        <v>2.434830163304525</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.562584084438413</v>
+        <v>1.696909837012669</v>
       </c>
       <c r="C24">
-        <v>0.3643280584053343</v>
+        <v>0.1163621968025055</v>
       </c>
       <c r="D24">
-        <v>0.05703687482473896</v>
+        <v>0.08563260083452207</v>
       </c>
       <c r="E24">
-        <v>0.05403072769989592</v>
+        <v>0.09490039443037901</v>
       </c>
       <c r="F24">
-        <v>2.990671215700786</v>
+        <v>0.7790207090911991</v>
       </c>
       <c r="G24">
-        <v>0.0007840330761851487</v>
+        <v>0.0008058096422038234</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.7916463489909376</v>
+        <v>1.347286279211573</v>
       </c>
       <c r="L24">
-        <v>0.4239259145117416</v>
+        <v>0.3520138863021032</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.406410699620153</v>
+        <v>2.317066793937045</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.884598390576969</v>
+        <v>1.387018860891203</v>
       </c>
       <c r="C25">
-        <v>0.3052001392847075</v>
+        <v>0.117899894728037</v>
       </c>
       <c r="D25">
-        <v>0.05891669568317326</v>
+        <v>0.07662529577716271</v>
       </c>
       <c r="E25">
-        <v>0.04916498972584726</v>
+        <v>0.08418782059464647</v>
       </c>
       <c r="F25">
-        <v>2.543059163730064</v>
+        <v>0.7160214436628607</v>
       </c>
       <c r="G25">
-        <v>0.0007992251598232129</v>
+        <v>0.0008132879911907914</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.6386223332671719</v>
+        <v>1.10545225373275</v>
       </c>
       <c r="L25">
-        <v>0.3469645494485434</v>
+        <v>0.2907880250882897</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.063292952015601</v>
+        <v>2.21147934391476</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.161207584106904</v>
+        <v>1.134340891452666</v>
       </c>
       <c r="C2">
-        <v>0.11918369565457</v>
+        <v>0.1637333865106001</v>
       </c>
       <c r="D2">
-        <v>0.0699658309173401</v>
+        <v>0.08973664767102463</v>
       </c>
       <c r="E2">
-        <v>0.07675859600700718</v>
+        <v>0.07226508522899877</v>
       </c>
       <c r="F2">
-        <v>0.6746043222081681</v>
+        <v>0.3907114432505807</v>
       </c>
       <c r="G2">
-        <v>0.0008190404351931904</v>
+        <v>0.2928283761116859</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.001636130285279425</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.2828410402261028</v>
       </c>
       <c r="K2">
-        <v>0.9284288657635216</v>
+        <v>0.3185028780434216</v>
       </c>
       <c r="L2">
-        <v>0.2467539116512398</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.006922078471007</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.2570210709267542</v>
       </c>
       <c r="O2">
-        <v>2.149866875507428</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.160646501334028</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.009231407086276</v>
+        <v>0.9878880417282403</v>
       </c>
       <c r="C3">
-        <v>0.1201466971544001</v>
+        <v>0.1591477662535326</v>
       </c>
       <c r="D3">
-        <v>0.06542982372281614</v>
+        <v>0.08026872653826445</v>
       </c>
       <c r="E3">
-        <v>0.07197474608016208</v>
+        <v>0.0681129527908837</v>
       </c>
       <c r="F3">
-        <v>0.6492829919228313</v>
+        <v>0.378965117817188</v>
       </c>
       <c r="G3">
-        <v>0.0008231012644864255</v>
+        <v>0.2897020084629958</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.002659778047471306</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.2862133532066693</v>
       </c>
       <c r="K3">
-        <v>0.8088205663661654</v>
+        <v>0.324451053132325</v>
       </c>
       <c r="L3">
-        <v>0.2174410105513118</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8840371839309</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.2265418674958113</v>
       </c>
       <c r="O3">
-        <v>2.117123583452724</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.160780284032299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.916314961505833</v>
+        <v>0.8977223426073806</v>
       </c>
       <c r="C4">
-        <v>0.1207833739911024</v>
+        <v>0.1563713038083492</v>
       </c>
       <c r="D4">
-        <v>0.06263177400423103</v>
+        <v>0.07445985472769223</v>
       </c>
       <c r="E4">
-        <v>0.06915057445797501</v>
+        <v>0.06561652090359971</v>
       </c>
       <c r="F4">
-        <v>0.634983026691998</v>
+        <v>0.3722681219404151</v>
       </c>
       <c r="G4">
-        <v>0.0008256774120044589</v>
+        <v>0.2882307103490334</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.003509689131555138</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2885911387217561</v>
       </c>
       <c r="K4">
-        <v>0.7354738374040579</v>
+        <v>0.3284563794221427</v>
       </c>
       <c r="L4">
-        <v>0.1996665190342526</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.8085677155660846</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2080424016552058</v>
       </c>
       <c r="O4">
-        <v>2.101142970982806</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.162448135260505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8785339720154752</v>
+        <v>0.8605695522412304</v>
       </c>
       <c r="C5">
-        <v>0.1210541765037227</v>
+        <v>0.1554031866148478</v>
       </c>
       <c r="D5">
-        <v>0.06148808657256666</v>
+        <v>0.07215949567820701</v>
       </c>
       <c r="E5">
-        <v>0.06802666807929114</v>
+        <v>0.06454794280068654</v>
       </c>
       <c r="F5">
-        <v>0.6294543105477644</v>
+        <v>0.3693082424941849</v>
       </c>
       <c r="G5">
-        <v>0.0008267484031369523</v>
+        <v>0.287404350253901</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.003985482886288416</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2894591509054933</v>
       </c>
       <c r="K5">
-        <v>0.7055964998677808</v>
+        <v>0.3298671948128096</v>
       </c>
       <c r="L5">
-        <v>0.1924744063942825</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7781497775925175</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2006320665932861</v>
       </c>
       <c r="O5">
-        <v>2.095622747811262</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.162433351120896</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8722650220287562</v>
+        <v>0.85397505713442</v>
       </c>
       <c r="C6">
-        <v>0.1210998269761987</v>
+        <v>0.1554335009267263</v>
       </c>
       <c r="D6">
-        <v>0.06129796337364724</v>
+        <v>0.07185882488261086</v>
       </c>
       <c r="E6">
-        <v>0.06784163104765639</v>
+        <v>0.06429295319461303</v>
       </c>
       <c r="F6">
-        <v>0.6285538824640042</v>
+        <v>0.3683898993409969</v>
       </c>
       <c r="G6">
-        <v>0.0008269275308274124</v>
+        <v>0.2868642788913363</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.004167991903295309</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.289392381886735</v>
       </c>
       <c r="K6">
-        <v>0.7006357982430274</v>
+        <v>0.329730914061777</v>
       </c>
       <c r="L6">
-        <v>0.1912831052838158</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7735231523780328</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1995003008374425</v>
       </c>
       <c r="O6">
-        <v>2.094764760800388</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.161134800828748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9158051183799785</v>
+        <v>0.8960667682927124</v>
       </c>
       <c r="C7">
-        <v>0.1207869802432953</v>
+        <v>0.1568812711645009</v>
       </c>
       <c r="D7">
-        <v>0.0626163641089903</v>
+        <v>0.07465168430383073</v>
       </c>
       <c r="E7">
-        <v>0.06913530978235016</v>
+        <v>0.06538795300881262</v>
       </c>
       <c r="F7">
-        <v>0.6349072746683575</v>
+        <v>0.3710423681402659</v>
       </c>
       <c r="G7">
-        <v>0.0008256917694911217</v>
+        <v>0.2871023962725232</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.00377367964921671</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2880157953876648</v>
       </c>
       <c r="K7">
-        <v>0.7350708669690391</v>
+        <v>0.3274510871643201</v>
       </c>
       <c r="L7">
-        <v>0.1995693232195634</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.8093225682779916</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.2082041409315138</v>
       </c>
       <c r="O7">
-        <v>2.101064564536813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.158849517766981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.108713268702161</v>
+        <v>1.082345559217572</v>
       </c>
       <c r="C8">
-        <v>0.1195062783268028</v>
+        <v>0.1628525821959244</v>
       </c>
       <c r="D8">
-        <v>0.06840436530657001</v>
+        <v>0.0867695300220106</v>
       </c>
       <c r="E8">
-        <v>0.07508472841997715</v>
+        <v>0.07053805045198658</v>
       </c>
       <c r="F8">
-        <v>0.6656053298735571</v>
+        <v>0.3849868765297728</v>
       </c>
       <c r="G8">
-        <v>0.0008204236583668466</v>
+        <v>0.2901837012697825</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.002249321186432063</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.2831700013469955</v>
       </c>
       <c r="K8">
-        <v>0.8871614644791919</v>
+        <v>0.3191368952326066</v>
       </c>
       <c r="L8">
-        <v>0.2365972076724887</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9661110320543571</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.2468124672638368</v>
       </c>
       <c r="O8">
-        <v>2.13769328156593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.155626097993647</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.490981348670914</v>
+        <v>1.448035079622343</v>
       </c>
       <c r="C9">
-        <v>0.1173581352943138</v>
+        <v>0.1739554110350454</v>
       </c>
       <c r="D9">
-        <v>0.079662870603606</v>
+        <v>0.1101935738436097</v>
       </c>
       <c r="E9">
-        <v>0.08772027619419731</v>
+        <v>0.08146903475003597</v>
       </c>
       <c r="F9">
-        <v>0.7364216982911529</v>
+        <v>0.4187822708342779</v>
       </c>
       <c r="G9">
-        <v>0.0008107318777545437</v>
+        <v>0.3019872240408716</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.0007391009910513446</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.2772326235466736</v>
       </c>
       <c r="K9">
-        <v>1.186713030744102</v>
+        <v>0.3075575501037306</v>
       </c>
       <c r="L9">
-        <v>0.3112322735679527</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.271618291116653</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.3239452880097815</v>
       </c>
       <c r="O9">
-        <v>2.24439374167747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.168922749651529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.775500863698653</v>
+        <v>1.715440629296154</v>
       </c>
       <c r="C10">
-        <v>0.1160063101619926</v>
+        <v>0.1826856568217394</v>
       </c>
       <c r="D10">
-        <v>0.08789554224323126</v>
+        <v>0.1276059013764694</v>
       </c>
       <c r="E10">
-        <v>0.09769975553848198</v>
+        <v>0.08970532813522425</v>
       </c>
       <c r="F10">
-        <v>0.7959891603818647</v>
+        <v>0.4460366162482075</v>
       </c>
       <c r="G10">
-        <v>0.0008039744743474068</v>
+        <v>0.3127345470512779</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001051231825858423</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.2742642880090571</v>
       </c>
       <c r="K10">
-        <v>1.408443525318063</v>
+        <v>0.3005019445808905</v>
       </c>
       <c r="L10">
-        <v>0.3676715383457605</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.497241429512059</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.3821769338707952</v>
       </c>
       <c r="O10">
-        <v>2.347228101633107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.185972961478029</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.906031402037996</v>
+        <v>1.835056337846197</v>
       </c>
       <c r="C11">
-        <v>0.1154417478798706</v>
+        <v>0.1876904459239412</v>
       </c>
       <c r="D11">
-        <v>0.09163649422481512</v>
+        <v>0.1359405812637817</v>
       </c>
       <c r="E11">
-        <v>0.1024159661560482</v>
+        <v>0.09317608783649689</v>
       </c>
       <c r="F11">
-        <v>0.8249789705544401</v>
+        <v>0.4572599883164798</v>
       </c>
       <c r="G11">
-        <v>0.000800973006445985</v>
+        <v>0.3164820576872742</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001895832314199097</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2723885811014242</v>
       </c>
       <c r="K11">
-        <v>1.509879281131418</v>
+        <v>0.2961509053681119</v>
       </c>
       <c r="L11">
-        <v>0.3937844817424718</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.602108343849665</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.4094765056038909</v>
       </c>
       <c r="O11">
-        <v>2.400077380344726</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.190201040025755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.955644639595306</v>
+        <v>1.881396364210644</v>
       </c>
       <c r="C12">
-        <v>0.1152353276313605</v>
+        <v>0.1890983848022074</v>
       </c>
       <c r="D12">
-        <v>0.09305286073272612</v>
+        <v>0.1388993556421383</v>
       </c>
       <c r="E12">
-        <v>0.1042294874303167</v>
+        <v>0.09468981797288123</v>
       </c>
       <c r="F12">
-        <v>0.8362515108360498</v>
+        <v>0.4626424997995215</v>
       </c>
       <c r="G12">
-        <v>0.0007998463136746265</v>
+        <v>0.3189522243176484</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.00206239542438702</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2722300436700351</v>
       </c>
       <c r="K12">
-        <v>1.548390452182218</v>
+        <v>0.2954296133209837</v>
       </c>
       <c r="L12">
-        <v>0.4037436957079734</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.640809998142544</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.419643799912194</v>
       </c>
       <c r="O12">
-        <v>2.42103113665317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.195184788668982</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.944950918802419</v>
+        <v>1.871627152706623</v>
       </c>
       <c r="C13">
-        <v>0.1152794542137556</v>
+        <v>0.1886925568378715</v>
       </c>
       <c r="D13">
-        <v>0.09274782624616051</v>
+        <v>0.1382209171041637</v>
       </c>
       <c r="E13">
-        <v>0.1038376489325117</v>
+        <v>0.09440101420288372</v>
       </c>
       <c r="F13">
-        <v>0.8338102815832826</v>
+        <v>0.4616827340295728</v>
       </c>
       <c r="G13">
-        <v>0.0008000885357447017</v>
+        <v>0.318606649563236</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.001981027560814752</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2723600542426325</v>
       </c>
       <c r="K13">
-        <v>1.540091652621982</v>
+        <v>0.295753176928482</v>
       </c>
       <c r="L13">
-        <v>0.4015955217876126</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.632260217910442</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.4174050193914525</v>
       </c>
       <c r="O13">
-        <v>2.416475385719622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.194707474172446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.910109267369563</v>
+        <v>1.838958287952494</v>
       </c>
       <c r="C14">
-        <v>0.1154246171769273</v>
+        <v>0.1877627093091618</v>
       </c>
       <c r="D14">
-        <v>0.0917530225084775</v>
+        <v>0.1361665009992095</v>
       </c>
       <c r="E14">
-        <v>0.1025645993544657</v>
+        <v>0.09331640994146539</v>
       </c>
       <c r="F14">
-        <v>0.8259003269815679</v>
+        <v>0.4577874293236306</v>
       </c>
       <c r="G14">
-        <v>0.0008008801175304547</v>
+        <v>0.3167643844255323</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.001889822104315542</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2724162250850739</v>
       </c>
       <c r="K14">
-        <v>1.513045514470633</v>
+        <v>0.2961629838798707</v>
       </c>
       <c r="L14">
-        <v>0.3946023666459837</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.605201166386337</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.4102920659594247</v>
       </c>
       <c r="O14">
-        <v>2.401781993707516</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>1.190863988336275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.88879253171217</v>
+        <v>1.818533114287789</v>
       </c>
       <c r="C15">
-        <v>0.1155144969058952</v>
+        <v>0.1873957082179842</v>
       </c>
       <c r="D15">
-        <v>0.09114365450584216</v>
+        <v>0.1349893880415323</v>
       </c>
       <c r="E15">
-        <v>0.1017884817942658</v>
+        <v>0.09257936945468259</v>
       </c>
       <c r="F15">
-        <v>0.8210943331686025</v>
+        <v>0.4550135186672435</v>
       </c>
       <c r="G15">
-        <v>0.0008013662569758924</v>
+        <v>0.3152730386764517</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001930130244215178</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2722642063380789</v>
       </c>
       <c r="K15">
-        <v>1.496492502415521</v>
+        <v>0.29608559691804</v>
       </c>
       <c r="L15">
-        <v>0.3903283187515996</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.589050837239256</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.4060343468085676</v>
       </c>
       <c r="O15">
-        <v>2.39290650468817</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.187349815502628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.76699470657681</v>
+        <v>1.704137653573156</v>
       </c>
       <c r="C16">
-        <v>0.1160442297148663</v>
+        <v>0.1840325540721253</v>
       </c>
       <c r="D16">
-        <v>0.08765100779883284</v>
+        <v>0.127738245967393</v>
       </c>
       <c r="E16">
-        <v>0.09739527741021448</v>
+        <v>0.08885420479227335</v>
       </c>
       <c r="F16">
-        <v>0.7941345823398365</v>
+        <v>0.4419168874390138</v>
       </c>
       <c r="G16">
-        <v>0.0008041720419879263</v>
+        <v>0.3093251306245293</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.001708714422572477</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2727514914283447</v>
       </c>
       <c r="K16">
-        <v>1.401827406370558</v>
+        <v>0.2979361791825035</v>
       </c>
       <c r="L16">
-        <v>0.3659744692598679</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.493907399387581</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.3811691447559156</v>
       </c>
       <c r="O16">
-        <v>2.343902118023806</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1.175562718424686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.692575481849161</v>
+        <v>1.633968705770798</v>
       </c>
       <c r="C17">
-        <v>0.1163821924155499</v>
+        <v>0.1819828276164159</v>
       </c>
       <c r="D17">
-        <v>0.08550755940018462</v>
+        <v>0.123294978673286</v>
       </c>
       <c r="E17">
-        <v>0.09474692083227865</v>
+        <v>0.08659214007362692</v>
       </c>
       <c r="F17">
-        <v>0.7780958946435277</v>
+        <v>0.434091460019566</v>
       </c>
       <c r="G17">
-        <v>0.0008059115058670909</v>
+        <v>0.3058592227261911</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.001664292036673842</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2731601435866011</v>
       </c>
       <c r="K17">
-        <v>1.343911497979434</v>
+        <v>0.2992035693129189</v>
       </c>
       <c r="L17">
-        <v>0.3511518126215094</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.435590700698384</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.3660119801933348</v>
       </c>
       <c r="O17">
-        <v>2.315440945977258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1.168947283539907</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.649873503524503</v>
+        <v>1.594661004639875</v>
       </c>
       <c r="C18">
-        <v>0.1165813146198893</v>
+        <v>0.1802993676534967</v>
       </c>
       <c r="D18">
-        <v>0.08427429347552362</v>
+        <v>0.1205365001086136</v>
       </c>
       <c r="E18">
-        <v>0.09324012719772412</v>
+        <v>0.0854883415704073</v>
       </c>
       <c r="F18">
-        <v>0.7690475278472348</v>
+        <v>0.4306938302824364</v>
       </c>
       <c r="G18">
-        <v>0.0008069188580470403</v>
+        <v>0.3048917994943494</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.001418030254886737</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2739325849718455</v>
       </c>
       <c r="K18">
-        <v>1.310652254915595</v>
+        <v>0.3008443764756166</v>
       </c>
       <c r="L18">
-        <v>0.3426669832337552</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.401002462872071</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.3570951224649264</v>
       </c>
       <c r="O18">
-        <v>2.299637751697361</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.168442305479573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.635432109570957</v>
+        <v>1.580541334194464</v>
       </c>
       <c r="C19">
-        <v>0.1166495437042698</v>
+        <v>0.1801224070825711</v>
       </c>
       <c r="D19">
-        <v>0.08385665021445021</v>
+        <v>0.1197604781914805</v>
       </c>
       <c r="E19">
-        <v>0.09273271671000671</v>
+        <v>0.08497016240086097</v>
       </c>
       <c r="F19">
-        <v>0.7660135851720327</v>
+        <v>0.4287621226095339</v>
       </c>
       <c r="G19">
-        <v>0.0008072611236504988</v>
+        <v>0.3038337532469697</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.001531950952673</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2738166305453902</v>
       </c>
       <c r="K19">
-        <v>1.29939973678259</v>
+        <v>0.3007409066805309</v>
       </c>
       <c r="L19">
-        <v>0.3398009408246736</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.390113134195673</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.3542611926023795</v>
       </c>
       <c r="O19">
-        <v>2.294382435684014</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.165931934076468</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.700486798869235</v>
+        <v>1.641520747271358</v>
       </c>
       <c r="C20">
-        <v>0.1163457248124544</v>
+        <v>0.1821604086769568</v>
       </c>
       <c r="D20">
-        <v>0.08573577329138971</v>
+        <v>0.1237517252159108</v>
       </c>
       <c r="E20">
-        <v>0.09502712267457625</v>
+        <v>0.08684691882200823</v>
       </c>
       <c r="F20">
-        <v>0.7797847977637389</v>
+        <v>0.4349974563637105</v>
       </c>
       <c r="G20">
-        <v>0.0008057256308871219</v>
+        <v>0.3062967405943269</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.001645566972740653</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.2731515674833176</v>
       </c>
       <c r="K20">
-        <v>1.350071191990878</v>
+        <v>0.2991314398885336</v>
       </c>
       <c r="L20">
-        <v>0.3527254356866507</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.441713438737168</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.3676036689459181</v>
       </c>
       <c r="O20">
-        <v>2.318411534819461</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.169870093988251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.920337891594244</v>
+        <v>1.847370982449576</v>
       </c>
       <c r="C21">
-        <v>0.115381778328647</v>
+        <v>0.1886093125992403</v>
       </c>
       <c r="D21">
-        <v>0.09204522440974472</v>
+        <v>0.1369996058934504</v>
       </c>
       <c r="E21">
-        <v>0.1029377575261492</v>
+        <v>0.09342307244629211</v>
       </c>
       <c r="F21">
-        <v>0.8282154850674459</v>
+        <v>0.457781233267859</v>
       </c>
       <c r="G21">
-        <v>0.0008006473465244985</v>
+        <v>0.3162325723459247</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002170201874873712</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.2718454520497957</v>
       </c>
       <c r="K21">
-        <v>1.520986767844221</v>
+        <v>0.2950805297407264</v>
       </c>
       <c r="L21">
-        <v>0.3966544393797022</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.614340349298658</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.4126395990652867</v>
       </c>
       <c r="O21">
-        <v>2.406071695977687</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.188557558612587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.06511010750728</v>
+        <v>1.983468063127361</v>
       </c>
       <c r="C22">
-        <v>0.1147947899214827</v>
+        <v>0.1921428613917442</v>
       </c>
       <c r="D22">
-        <v>0.09616753361350305</v>
+        <v>0.1453856821331669</v>
       </c>
       <c r="E22">
-        <v>0.1082698014723924</v>
+        <v>0.09806907688799527</v>
       </c>
       <c r="F22">
-        <v>0.8615973507914703</v>
+        <v>0.4748436649837373</v>
       </c>
       <c r="G22">
-        <v>0.0007973858162100333</v>
+        <v>0.3247115655310822</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.002495839527869137</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.2720645560518662</v>
       </c>
       <c r="K22">
-        <v>1.633280085346541</v>
+        <v>0.2940992793830475</v>
       </c>
       <c r="L22">
-        <v>0.4257813351362074</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.725848031847164</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.4420816293523018</v>
       </c>
       <c r="O22">
-        <v>2.468882175772961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.207219743417383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.987733959798277</v>
+        <v>1.912250095242683</v>
       </c>
       <c r="C23">
-        <v>0.1151040985642595</v>
+        <v>0.189561970886146</v>
       </c>
       <c r="D23">
-        <v>0.09396737593797866</v>
+        <v>0.1406306945460472</v>
       </c>
       <c r="E23">
-        <v>0.1054083937607082</v>
+        <v>0.09583708448071704</v>
       </c>
       <c r="F23">
-        <v>0.8436146495985355</v>
+        <v>0.4670521489303212</v>
       </c>
       <c r="G23">
-        <v>0.0007991214860920977</v>
+        <v>0.3214169308667323</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.002003091160172943</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.2725786130801069</v>
       </c>
       <c r="K23">
-        <v>1.573286795954829</v>
+        <v>0.2957387877597313</v>
       </c>
       <c r="L23">
-        <v>0.4101949131724609</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.664875001137631</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.4260218146832244</v>
       </c>
       <c r="O23">
-        <v>2.434830163304525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.201190634490786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.696909837012669</v>
+        <v>1.640334174712564</v>
       </c>
       <c r="C24">
-        <v>0.1163621968025055</v>
+        <v>0.1810065790449045</v>
       </c>
       <c r="D24">
-        <v>0.08563260083452207</v>
+        <v>0.1231123526566478</v>
       </c>
       <c r="E24">
-        <v>0.09490039443037901</v>
+        <v>0.08713227212338026</v>
       </c>
       <c r="F24">
-        <v>0.7790207090911991</v>
+        <v>0.4367669125354752</v>
       </c>
       <c r="G24">
-        <v>0.0008058096422038234</v>
+        <v>0.3081345535745328</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.001159352388203416</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.2742094255781282</v>
       </c>
       <c r="K24">
-        <v>1.347286279211573</v>
+        <v>0.3009958599841625</v>
       </c>
       <c r="L24">
-        <v>0.3520138863021032</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.436696496358138</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.3663915336600923</v>
       </c>
       <c r="O24">
-        <v>2.317066793937045</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.175975832813975</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.387018860891203</v>
+        <v>1.347110448224015</v>
       </c>
       <c r="C25">
-        <v>0.117899894728037</v>
+        <v>0.1719136020290364</v>
       </c>
       <c r="D25">
-        <v>0.07662529577716271</v>
+        <v>0.1042599820740762</v>
       </c>
       <c r="E25">
-        <v>0.08418782059464647</v>
+        <v>0.07807120111889176</v>
       </c>
       <c r="F25">
-        <v>0.7160214436628607</v>
+        <v>0.4070118156511811</v>
       </c>
       <c r="G25">
-        <v>0.0008132879911907914</v>
+        <v>0.2963645436486146</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.001362012597236451</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.277518435193187</v>
       </c>
       <c r="K25">
-        <v>1.10545225373275</v>
+        <v>0.3085556476825637</v>
       </c>
       <c r="L25">
-        <v>0.2907880250882897</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.191068126987858</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.3033253903014383</v>
       </c>
       <c r="O25">
-        <v>2.21147934391476</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.157416062986684</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_6_4/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_4/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.134340891452666</v>
+        <v>1.122548581918579</v>
       </c>
       <c r="C2">
-        <v>0.1637333865106001</v>
+        <v>0.1546766222391085</v>
       </c>
       <c r="D2">
-        <v>0.08973664767102463</v>
+        <v>0.09226393267788779</v>
       </c>
       <c r="E2">
-        <v>0.07226508522899877</v>
+        <v>0.06732234661092917</v>
       </c>
       <c r="F2">
-        <v>0.3907114432505807</v>
+        <v>0.3674994787125812</v>
       </c>
       <c r="G2">
-        <v>0.2928283761116859</v>
+        <v>0.2535852456775132</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.001636130285279425</v>
+        <v>0.001187074826266787</v>
       </c>
       <c r="J2">
-        <v>0.2828410402261028</v>
+        <v>0.299367567046346</v>
       </c>
       <c r="K2">
-        <v>0.3185028780434216</v>
+        <v>0.2902796236731184</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1475341249653557</v>
       </c>
       <c r="M2">
-        <v>1.006922078471007</v>
+        <v>0.07698475411758743</v>
       </c>
       <c r="N2">
-        <v>0.2570210709267542</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.025893245529659</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.2618599387750891</v>
       </c>
       <c r="Q2">
-        <v>1.160646501334028</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.082874484693605</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9878880417282403</v>
+        <v>0.9800857567342405</v>
       </c>
       <c r="C3">
-        <v>0.1591477662535326</v>
+        <v>0.1469386584848635</v>
       </c>
       <c r="D3">
-        <v>0.08026872653826445</v>
+        <v>0.08189381863244449</v>
       </c>
       <c r="E3">
-        <v>0.0681129527908837</v>
+        <v>0.06365310389641365</v>
       </c>
       <c r="F3">
-        <v>0.378965117817188</v>
+        <v>0.3581868664151742</v>
       </c>
       <c r="G3">
-        <v>0.2897020084629958</v>
+        <v>0.2532918311006753</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.002659778047471306</v>
+        <v>0.001867465763252696</v>
       </c>
       <c r="J3">
-        <v>0.2862133532066693</v>
+        <v>0.3012190890867785</v>
       </c>
       <c r="K3">
-        <v>0.324451053132325</v>
+        <v>0.2972722419599627</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1530801919612905</v>
       </c>
       <c r="M3">
-        <v>0.8840371839309</v>
+        <v>0.07799717990864252</v>
       </c>
       <c r="N3">
-        <v>0.2265418674958113</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.8992185008006004</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.2305924491721498</v>
       </c>
       <c r="Q3">
-        <v>1.160780284032299</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.088795270366802</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8977223426073806</v>
+        <v>0.892253131182656</v>
       </c>
       <c r="C4">
-        <v>0.1563713038083492</v>
+        <v>0.1422814890582345</v>
       </c>
       <c r="D4">
-        <v>0.07445985472769223</v>
+        <v>0.07554531076466731</v>
       </c>
       <c r="E4">
-        <v>0.06561652090359971</v>
+        <v>0.06143491074897511</v>
       </c>
       <c r="F4">
-        <v>0.3722681219404151</v>
+        <v>0.3528779106626132</v>
       </c>
       <c r="G4">
-        <v>0.2882307103490334</v>
+        <v>0.2535583530040171</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.003509689131555138</v>
+        <v>0.002468969019627121</v>
       </c>
       <c r="J4">
-        <v>0.2885911387217561</v>
+        <v>0.3024887619408361</v>
       </c>
       <c r="K4">
-        <v>0.3284563794221427</v>
+        <v>0.301829802041409</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1566335689761758</v>
       </c>
       <c r="M4">
-        <v>0.8085677155660846</v>
+        <v>0.07917820691236077</v>
       </c>
       <c r="N4">
-        <v>0.2080424016552058</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.8214690686722577</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.2116207869332243</v>
       </c>
       <c r="Q4">
-        <v>1.162448135260505</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.093689779266938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8605695522412304</v>
+        <v>0.856028835586045</v>
       </c>
       <c r="C5">
-        <v>0.1554031866148478</v>
+        <v>0.1405842668259467</v>
       </c>
       <c r="D5">
-        <v>0.07215949567820701</v>
+        <v>0.07302905646452729</v>
       </c>
       <c r="E5">
-        <v>0.06454794280068654</v>
+        <v>0.06047774424162888</v>
       </c>
       <c r="F5">
-        <v>0.3693082424941849</v>
+        <v>0.3504718475819146</v>
       </c>
       <c r="G5">
-        <v>0.287404350253901</v>
+        <v>0.2534613729425601</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.003985482886288416</v>
+        <v>0.002846338382619606</v>
       </c>
       <c r="J5">
-        <v>0.2894591509054933</v>
+        <v>0.3028631002955962</v>
       </c>
       <c r="K5">
-        <v>0.3298671948128096</v>
+        <v>0.3034667916603393</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1579663287804962</v>
       </c>
       <c r="M5">
-        <v>0.7781497775925175</v>
+        <v>0.07973629666425452</v>
       </c>
       <c r="N5">
-        <v>0.2006320665932861</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.7901330891864546</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.2040205843919551</v>
       </c>
       <c r="Q5">
-        <v>1.162433351120896</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.094963934584271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.85397505713442</v>
+        <v>0.8495940573675114</v>
       </c>
       <c r="C6">
-        <v>0.1554335009267263</v>
+        <v>0.1405237925721252</v>
       </c>
       <c r="D6">
-        <v>0.07185882488261086</v>
+        <v>0.07269328431583943</v>
       </c>
       <c r="E6">
-        <v>0.06429295319461303</v>
+        <v>0.06024407193880776</v>
       </c>
       <c r="F6">
-        <v>0.3683898993409969</v>
+        <v>0.3496614077282771</v>
       </c>
       <c r="G6">
-        <v>0.2868642788913363</v>
+        <v>0.2530695556510594</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.004167991903295309</v>
+        <v>0.003027967409520826</v>
       </c>
       <c r="J6">
-        <v>0.289392381886735</v>
+        <v>0.3027125290387644</v>
       </c>
       <c r="K6">
-        <v>0.329730914061777</v>
+        <v>0.3033951978786096</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1580046344601769</v>
       </c>
       <c r="M6">
-        <v>0.7735231523780328</v>
+        <v>0.07976027865977109</v>
       </c>
       <c r="N6">
-        <v>0.1995003008374425</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.785352864727983</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.2028567402028898</v>
       </c>
       <c r="Q6">
-        <v>1.161134800828748</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.093941357751461</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8960667682927124</v>
+        <v>0.8907509171249615</v>
       </c>
       <c r="C7">
-        <v>0.1568812711645009</v>
+        <v>0.1427588243352531</v>
       </c>
       <c r="D7">
-        <v>0.07465168430383073</v>
+        <v>0.07587197049139149</v>
       </c>
       <c r="E7">
-        <v>0.06538795300881262</v>
+        <v>0.06123815516142272</v>
       </c>
       <c r="F7">
-        <v>0.3710423681402659</v>
+        <v>0.3510470503885017</v>
       </c>
       <c r="G7">
-        <v>0.2871023962725232</v>
+        <v>0.2544544657458019</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.00377367964921671</v>
+        <v>0.0027764525654419</v>
       </c>
       <c r="J7">
-        <v>0.2880157953876648</v>
+        <v>0.298870039158686</v>
       </c>
       <c r="K7">
-        <v>0.3274510871643201</v>
+        <v>0.3005573215397241</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1559802343798431</v>
       </c>
       <c r="M7">
-        <v>0.8093225682779916</v>
+        <v>0.07887836298590312</v>
       </c>
       <c r="N7">
-        <v>0.2082041409315138</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8220157444950189</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.2117452147634253</v>
       </c>
       <c r="Q7">
-        <v>1.158849517766981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.088331548687648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.082345559217572</v>
+        <v>1.072385810861846</v>
       </c>
       <c r="C8">
-        <v>0.1628525821959244</v>
+        <v>0.1524679409554395</v>
       </c>
       <c r="D8">
-        <v>0.0867695300220106</v>
+        <v>0.08944608625057526</v>
       </c>
       <c r="E8">
-        <v>0.07053805045198658</v>
+        <v>0.06585150167153131</v>
       </c>
       <c r="F8">
-        <v>0.3849868765297728</v>
+        <v>0.3605240917488501</v>
       </c>
       <c r="G8">
-        <v>0.2901837012697825</v>
+        <v>0.2585137852843928</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.002249321186432063</v>
+        <v>0.001749427076219057</v>
       </c>
       <c r="J8">
-        <v>0.2831700013469955</v>
+        <v>0.2894198202800666</v>
       </c>
       <c r="K8">
-        <v>0.3191368952326066</v>
+        <v>0.2902773395883109</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1483096717239309</v>
       </c>
       <c r="M8">
-        <v>0.9661110320543571</v>
+        <v>0.07654090901950639</v>
       </c>
       <c r="N8">
-        <v>0.2468124672638368</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.9831248881573629</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.2512630953652035</v>
       </c>
       <c r="Q8">
-        <v>1.155626097993647</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.073750775212517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.448035079622343</v>
+        <v>1.427498966036552</v>
       </c>
       <c r="C9">
-        <v>0.1739554110350454</v>
+        <v>0.171559759930453</v>
       </c>
       <c r="D9">
-        <v>0.1101935738436097</v>
+        <v>0.1153398636391358</v>
       </c>
       <c r="E9">
-        <v>0.08146903475003597</v>
+        <v>0.07548336544315148</v>
       </c>
       <c r="F9">
-        <v>0.4187822708342779</v>
+        <v>0.3869812988648889</v>
       </c>
       <c r="G9">
-        <v>0.3019872240408716</v>
+        <v>0.2649573491977648</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.0007391009910513446</v>
+        <v>0.0008131437199949687</v>
       </c>
       <c r="J9">
-        <v>0.2772326235466736</v>
+        <v>0.2836459459723528</v>
       </c>
       <c r="K9">
-        <v>0.3075575501037306</v>
+        <v>0.2752173299491893</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1358678060902871</v>
       </c>
       <c r="M9">
-        <v>1.271618291116653</v>
+        <v>0.07723492206629778</v>
       </c>
       <c r="N9">
-        <v>0.3239452880097815</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.298134419483603</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.3303851090297201</v>
       </c>
       <c r="Q9">
-        <v>1.168922749651529</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.068818575616277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.715440629296154</v>
+        <v>1.687169932042309</v>
       </c>
       <c r="C10">
-        <v>0.1826856568217394</v>
+        <v>0.1858790967648929</v>
       </c>
       <c r="D10">
-        <v>0.1276059013764694</v>
+        <v>0.1354876745904505</v>
       </c>
       <c r="E10">
-        <v>0.08970532813522425</v>
+        <v>0.08280608095680719</v>
       </c>
       <c r="F10">
-        <v>0.4460366162482075</v>
+        <v>0.4044894884761021</v>
       </c>
       <c r="G10">
-        <v>0.3127345470512779</v>
+        <v>0.2836104685590897</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001051231825858423</v>
+        <v>0.001338731216383948</v>
       </c>
       <c r="J10">
-        <v>0.2742642880090571</v>
+        <v>0.2641385749433738</v>
       </c>
       <c r="K10">
-        <v>0.3005019445808905</v>
+        <v>0.2633044787586236</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1266686393980603</v>
       </c>
       <c r="M10">
-        <v>1.497241429512059</v>
+        <v>0.07960836778540425</v>
       </c>
       <c r="N10">
-        <v>0.3821769338707952</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.529743022388658</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.3899033385222737</v>
       </c>
       <c r="Q10">
-        <v>1.185972961478029</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.059779573690975</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.835056337846197</v>
+        <v>1.804425728730166</v>
       </c>
       <c r="C11">
-        <v>0.1876904459239412</v>
+        <v>0.1925639330729609</v>
       </c>
       <c r="D11">
-        <v>0.1359405812637817</v>
+        <v>0.1466244674008692</v>
       </c>
       <c r="E11">
-        <v>0.09317608783649689</v>
+        <v>0.08610035316011988</v>
       </c>
       <c r="F11">
-        <v>0.4572599883164798</v>
+        <v>0.4046054243238615</v>
       </c>
       <c r="G11">
-        <v>0.3164820576872742</v>
+        <v>0.313080470804266</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001895832314199097</v>
+        <v>0.002289788691297368</v>
       </c>
       <c r="J11">
-        <v>0.2723885811014242</v>
+        <v>0.2317957581131935</v>
       </c>
       <c r="K11">
-        <v>0.2961509053681119</v>
+        <v>0.2536173227897258</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1211763980956064</v>
       </c>
       <c r="M11">
-        <v>1.602108343849665</v>
+        <v>0.07929567273086491</v>
       </c>
       <c r="N11">
-        <v>0.4094765056038909</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.635332161906234</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4174103588411953</v>
       </c>
       <c r="Q11">
-        <v>1.190201040025755</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.033048191849232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.881396364210644</v>
+        <v>1.849991052564206</v>
       </c>
       <c r="C12">
-        <v>0.1890983848022074</v>
+        <v>0.1943651634015424</v>
       </c>
       <c r="D12">
-        <v>0.1388993556421383</v>
+        <v>0.150848532170329</v>
       </c>
       <c r="E12">
-        <v>0.09468981797288123</v>
+        <v>0.08756651205198196</v>
       </c>
       <c r="F12">
-        <v>0.4626424997995215</v>
+        <v>0.4048418817365587</v>
       </c>
       <c r="G12">
-        <v>0.3189522243176484</v>
+        <v>0.328662820771811</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.00206239542438702</v>
+        <v>0.002441422472652555</v>
       </c>
       <c r="J12">
-        <v>0.2722300436700351</v>
+        <v>0.219060160801174</v>
       </c>
       <c r="K12">
-        <v>0.2954296133209837</v>
+        <v>0.2503423784614682</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1192840835240716</v>
       </c>
       <c r="M12">
-        <v>1.640809998142544</v>
+        <v>0.07936418671982182</v>
       </c>
       <c r="N12">
-        <v>0.419643799912194</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.674052332422178</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4276070263996132</v>
       </c>
       <c r="Q12">
-        <v>1.195184788668982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1.023566015362547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.871627152706623</v>
+        <v>1.840376460878815</v>
       </c>
       <c r="C13">
-        <v>0.1886925568378715</v>
+        <v>0.1938583419483706</v>
       </c>
       <c r="D13">
-        <v>0.1382209171041637</v>
+        <v>0.149886238789378</v>
       </c>
       <c r="E13">
-        <v>0.09440101420288372</v>
+        <v>0.08728447450902621</v>
       </c>
       <c r="F13">
-        <v>0.4616827340295728</v>
+        <v>0.4050112150525607</v>
       </c>
       <c r="G13">
-        <v>0.318606649563236</v>
+        <v>0.3253318902139313</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001981027560814752</v>
+        <v>0.002354593812901484</v>
       </c>
       <c r="J13">
-        <v>0.2723600542426325</v>
+        <v>0.2218616197053436</v>
       </c>
       <c r="K13">
-        <v>0.295753176928482</v>
+        <v>0.2512055793293229</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1197413801844345</v>
       </c>
       <c r="M13">
-        <v>1.632260217910442</v>
+        <v>0.07941582326887797</v>
       </c>
       <c r="N13">
-        <v>0.4174050193914525</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.66551019051002</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.4253645351518855</v>
       </c>
       <c r="Q13">
-        <v>1.194707474172446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>1.026240299869755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.838958287952494</v>
+        <v>1.808258617764722</v>
       </c>
       <c r="C14">
-        <v>0.1877627093091618</v>
+        <v>0.1926617001417981</v>
       </c>
       <c r="D14">
-        <v>0.1361665009992095</v>
+        <v>0.1469495014125926</v>
       </c>
       <c r="E14">
-        <v>0.09331640994146539</v>
+        <v>0.08623525105583241</v>
       </c>
       <c r="F14">
-        <v>0.4577874293236306</v>
+        <v>0.404719645865157</v>
       </c>
       <c r="G14">
-        <v>0.3167643844255323</v>
+        <v>0.3143687435012268</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.001889822104315542</v>
+        <v>0.00227883480193114</v>
       </c>
       <c r="J14">
-        <v>0.2724162250850739</v>
+        <v>0.2307789960686648</v>
       </c>
       <c r="K14">
-        <v>0.2961629838798707</v>
+        <v>0.25341585480734</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1210424007643667</v>
       </c>
       <c r="M14">
-        <v>1.605201166386337</v>
+        <v>0.07932954727476016</v>
       </c>
       <c r="N14">
-        <v>0.4102920659594247</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.638431716505096</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.4182294968716462</v>
       </c>
       <c r="Q14">
-        <v>1.190863988336275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>1.032540633840597</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.818533114287789</v>
+        <v>1.78820107554364</v>
       </c>
       <c r="C15">
-        <v>0.1873957082179842</v>
+        <v>0.1921585049124985</v>
       </c>
       <c r="D15">
-        <v>0.1349893880415323</v>
+        <v>0.1452627213381277</v>
       </c>
       <c r="E15">
-        <v>0.09257936945468259</v>
+        <v>0.08552801881572947</v>
       </c>
       <c r="F15">
-        <v>0.4550135186672435</v>
+        <v>0.4040721047822657</v>
       </c>
       <c r="G15">
-        <v>0.3152730386764517</v>
+        <v>0.307763537073491</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001930130244215178</v>
+        <v>0.002345832672055792</v>
       </c>
       <c r="J15">
-        <v>0.2722642063380789</v>
+        <v>0.2360612244256899</v>
       </c>
       <c r="K15">
-        <v>0.29608559691804</v>
+        <v>0.2544399595033653</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1217344198244827</v>
       </c>
       <c r="M15">
-        <v>1.589050837239256</v>
+        <v>0.07914193615894405</v>
       </c>
       <c r="N15">
-        <v>0.4060343468085676</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.622235817612648</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.4139509757785902</v>
       </c>
       <c r="Q15">
-        <v>1.187349815502628</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1.035050898519515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.704137653573156</v>
+        <v>1.67612796039316</v>
       </c>
       <c r="C16">
-        <v>0.1840325540721253</v>
+        <v>0.1874755650480751</v>
       </c>
       <c r="D16">
-        <v>0.127738245967393</v>
+        <v>0.1354824753548058</v>
       </c>
       <c r="E16">
-        <v>0.08885420479227335</v>
+        <v>0.0820053460561283</v>
       </c>
       <c r="F16">
-        <v>0.4419168874390138</v>
+        <v>0.4012219148012335</v>
       </c>
       <c r="G16">
-        <v>0.3093251306245293</v>
+        <v>0.2790886865173832</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.001708714422572477</v>
+        <v>0.002134010690165944</v>
       </c>
       <c r="J16">
-        <v>0.2727514914283447</v>
+        <v>0.2646719357571499</v>
       </c>
       <c r="K16">
-        <v>0.2979361791825035</v>
+        <v>0.2614283977968661</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1261497633205568</v>
       </c>
       <c r="M16">
-        <v>1.493907399387581</v>
+        <v>0.07861818084782257</v>
       </c>
       <c r="N16">
-        <v>0.3811691447559156</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.526327362179984</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.388870908522847</v>
       </c>
       <c r="Q16">
-        <v>1.175562718424686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>1.052024035140448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.633968705770798</v>
+        <v>1.607620790252213</v>
       </c>
       <c r="C17">
-        <v>0.1819828276164159</v>
+        <v>0.1843845626530367</v>
       </c>
       <c r="D17">
-        <v>0.123294978673286</v>
+        <v>0.1298327406574771</v>
       </c>
       <c r="E17">
-        <v>0.08659214007362692</v>
+        <v>0.07991550301865757</v>
       </c>
       <c r="F17">
-        <v>0.434091460019566</v>
+        <v>0.3981936304057783</v>
       </c>
       <c r="G17">
-        <v>0.3058592227261911</v>
+        <v>0.2668592369756553</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.001664292036673842</v>
+        <v>0.002075590923511506</v>
       </c>
       <c r="J17">
-        <v>0.2731601435866011</v>
+        <v>0.2785175820969101</v>
       </c>
       <c r="K17">
-        <v>0.2992035693129189</v>
+        <v>0.2651199668831659</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1287063086765219</v>
       </c>
       <c r="M17">
-        <v>1.435590700698384</v>
+        <v>0.07813432979755852</v>
       </c>
       <c r="N17">
-        <v>0.3660119801933348</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.467105403211264</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.3734981255434775</v>
       </c>
       <c r="Q17">
-        <v>1.168947283539907</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>1.058787227833648</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.594661004639875</v>
+        <v>1.569324432583841</v>
       </c>
       <c r="C18">
-        <v>0.1802993676534967</v>
+        <v>0.1819046955946817</v>
       </c>
       <c r="D18">
-        <v>0.1205365001086136</v>
+        <v>0.126495069208957</v>
       </c>
       <c r="E18">
-        <v>0.0854883415704073</v>
+        <v>0.07891654279309535</v>
       </c>
       <c r="F18">
-        <v>0.4306938302824364</v>
+        <v>0.3969639238582872</v>
       </c>
       <c r="G18">
-        <v>0.3048917994943494</v>
+        <v>0.2624518689732298</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.001418030254886737</v>
+        <v>0.001763299292077747</v>
       </c>
       <c r="J18">
-        <v>0.2739325849718455</v>
+        <v>0.2851282634874934</v>
       </c>
       <c r="K18">
-        <v>0.3008443764756166</v>
+        <v>0.2677860657156863</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1303937186602528</v>
       </c>
       <c r="M18">
-        <v>1.401002462872071</v>
+        <v>0.07809965583829026</v>
       </c>
       <c r="N18">
-        <v>0.3570951224649264</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.431842769284771</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3644296764548471</v>
       </c>
       <c r="Q18">
-        <v>1.168442305479573</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>1.064202992965306</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.580541334194464</v>
+        <v>1.555580556676432</v>
       </c>
       <c r="C19">
-        <v>0.1801224070825711</v>
+        <v>0.1815319424642041</v>
       </c>
       <c r="D19">
-        <v>0.1197604781914805</v>
+        <v>0.1255457213931948</v>
       </c>
       <c r="E19">
-        <v>0.08497016240086097</v>
+        <v>0.0784446239427794</v>
       </c>
       <c r="F19">
-        <v>0.4287621226095339</v>
+        <v>0.3957281432601789</v>
       </c>
       <c r="G19">
-        <v>0.3038337532469697</v>
+        <v>0.2605537381421357</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.001531950952673</v>
+        <v>0.001892870106028788</v>
       </c>
       <c r="J19">
-        <v>0.2738166305453902</v>
+        <v>0.2866756688037597</v>
       </c>
       <c r="K19">
-        <v>0.3007409066805309</v>
+        <v>0.2680692503857109</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1307391420304658</v>
       </c>
       <c r="M19">
-        <v>1.390113134195673</v>
+        <v>0.07785366353398082</v>
       </c>
       <c r="N19">
-        <v>0.3542611926023795</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.420699534456901</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3615386786580501</v>
       </c>
       <c r="Q19">
-        <v>1.165931934076468</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.063638401683619</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.641520747271358</v>
+        <v>1.6149853437866</v>
       </c>
       <c r="C20">
-        <v>0.1821604086769568</v>
+        <v>0.1846727226426168</v>
       </c>
       <c r="D20">
-        <v>0.1237517252159108</v>
+        <v>0.1304051019210704</v>
       </c>
       <c r="E20">
-        <v>0.08684691882200823</v>
+        <v>0.08014940854025454</v>
       </c>
       <c r="F20">
-        <v>0.4349974563637105</v>
+        <v>0.3986386513150109</v>
       </c>
       <c r="G20">
-        <v>0.3062967405943269</v>
+        <v>0.2680468546227104</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.001645566972740653</v>
+        <v>0.002054929793881222</v>
       </c>
       <c r="J20">
-        <v>0.2731515674833176</v>
+        <v>0.2772580507506319</v>
       </c>
       <c r="K20">
-        <v>0.2991314398885336</v>
+        <v>0.2648081892150778</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1284618272378388</v>
       </c>
       <c r="M20">
-        <v>1.441713438737168</v>
+        <v>0.07821444224873808</v>
       </c>
       <c r="N20">
-        <v>0.3676036689459181</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.473340558694105</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.3751158986162579</v>
       </c>
       <c r="Q20">
-        <v>1.169870093988251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.058423526477668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.847370982449576</v>
+        <v>1.816989999894645</v>
       </c>
       <c r="C21">
-        <v>0.1886093125992403</v>
+        <v>0.193311457053241</v>
       </c>
       <c r="D21">
-        <v>0.1369996058934504</v>
+        <v>0.148585510072877</v>
       </c>
       <c r="E21">
-        <v>0.09342307244629211</v>
+        <v>0.08642809204329893</v>
       </c>
       <c r="F21">
-        <v>0.457781233267859</v>
+        <v>0.4014305404892085</v>
       </c>
       <c r="G21">
-        <v>0.3162325723459247</v>
+        <v>0.3244716459593064</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.002170201874873712</v>
+        <v>0.002604982611448037</v>
       </c>
       <c r="J21">
-        <v>0.2718454520497957</v>
+        <v>0.2208529062073517</v>
       </c>
       <c r="K21">
-        <v>0.2950805297407264</v>
+        <v>0.2508270559517101</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1200148466876367</v>
       </c>
       <c r="M21">
-        <v>1.614340349298658</v>
+        <v>0.07853016109750044</v>
       </c>
       <c r="N21">
-        <v>0.4126395990652867</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.646876967814876</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.4204504518796313</v>
       </c>
       <c r="Q21">
-        <v>1.188557558612587</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.020965047491003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.983468063127361</v>
+        <v>1.950639605065163</v>
       </c>
       <c r="C22">
-        <v>0.1921428613917442</v>
+        <v>0.1980278683392953</v>
       </c>
       <c r="D22">
-        <v>0.1453856821331669</v>
+        <v>0.1605221191775286</v>
       </c>
       <c r="E22">
-        <v>0.09806907688799527</v>
+        <v>0.09089815387190825</v>
       </c>
       <c r="F22">
-        <v>0.4748436649837373</v>
+        <v>0.4041061509558048</v>
       </c>
       <c r="G22">
-        <v>0.3247115655310822</v>
+        <v>0.3704875020568608</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.002495839527869137</v>
+        <v>0.002810799036656597</v>
       </c>
       <c r="J22">
-        <v>0.2720645560518662</v>
+        <v>0.1923579837246621</v>
       </c>
       <c r="K22">
-        <v>0.2940992793830475</v>
+        <v>0.2426244083881173</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1150536308830343</v>
       </c>
       <c r="M22">
-        <v>1.725848031847164</v>
+        <v>0.07933212067078443</v>
       </c>
       <c r="N22">
-        <v>0.4420816293523018</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.758659273675477</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.4500132962616163</v>
       </c>
       <c r="Q22">
-        <v>1.207219743417383</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0.9992502228461717</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.912250095242683</v>
+        <v>1.88036325577923</v>
       </c>
       <c r="C23">
-        <v>0.189561970886146</v>
+        <v>0.194951034380864</v>
       </c>
       <c r="D23">
-        <v>0.1406306945460472</v>
+        <v>0.153450370799888</v>
       </c>
       <c r="E23">
-        <v>0.09583708448071704</v>
+        <v>0.08868272396663812</v>
       </c>
       <c r="F23">
-        <v>0.4670521489303212</v>
+        <v>0.4055974473660129</v>
       </c>
       <c r="G23">
-        <v>0.3214169308667323</v>
+        <v>0.3407003023603465</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.002003091160172943</v>
+        <v>0.002329337293411449</v>
       </c>
       <c r="J23">
-        <v>0.2725786130801069</v>
+        <v>0.2111295048347372</v>
       </c>
       <c r="K23">
-        <v>0.2957387877597313</v>
+        <v>0.2487544882396158</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1182469778200996</v>
       </c>
       <c r="M23">
-        <v>1.664875001137631</v>
+        <v>0.07964400895048485</v>
       </c>
       <c r="N23">
-        <v>0.4260218146832244</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.698057592845061</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.4339906835763543</v>
       </c>
       <c r="Q23">
-        <v>1.201190634490786</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.019197977655779</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.640334174712564</v>
+        <v>1.613828114385598</v>
       </c>
       <c r="C24">
-        <v>0.1810065790449045</v>
+        <v>0.1832270621433167</v>
       </c>
       <c r="D24">
-        <v>0.1231123526566478</v>
+        <v>0.1297037140028294</v>
       </c>
       <c r="E24">
-        <v>0.08713227212338026</v>
+        <v>0.08042184442403766</v>
       </c>
       <c r="F24">
-        <v>0.4367669125354752</v>
+        <v>0.4004749092829485</v>
       </c>
       <c r="G24">
-        <v>0.3081345535745328</v>
+        <v>0.2694051949603562</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.001159352388203416</v>
+        <v>0.001468424250849587</v>
       </c>
       <c r="J24">
-        <v>0.2742094255781282</v>
+        <v>0.2787686360973822</v>
       </c>
       <c r="K24">
-        <v>0.3009958599841625</v>
+        <v>0.2665447412492803</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1291509702485474</v>
       </c>
       <c r="M24">
-        <v>1.436696496358138</v>
+        <v>0.07880683097456398</v>
       </c>
       <c r="N24">
-        <v>0.3663915336600923</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.46827294821469</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.3738947677462505</v>
       </c>
       <c r="Q24">
-        <v>1.175975832813975</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.064551816430722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.347110448224015</v>
+        <v>1.329426018904115</v>
       </c>
       <c r="C25">
-        <v>0.1719136020290364</v>
+        <v>0.1676761822785622</v>
       </c>
       <c r="D25">
-        <v>0.1042599820740762</v>
+        <v>0.108531763227063</v>
       </c>
       <c r="E25">
-        <v>0.07807120111889176</v>
+        <v>0.0724419647320893</v>
       </c>
       <c r="F25">
-        <v>0.4070118156511811</v>
+        <v>0.3783520413824562</v>
       </c>
       <c r="G25">
-        <v>0.2963645436486146</v>
+        <v>0.2581130972969348</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.001362012597236451</v>
+        <v>0.001399101649754542</v>
       </c>
       <c r="J25">
-        <v>0.277518435193187</v>
+        <v>0.288210790232192</v>
       </c>
       <c r="K25">
-        <v>0.3085556476825637</v>
+        <v>0.2779190269182372</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1386439245366251</v>
       </c>
       <c r="M25">
-        <v>1.191068126987858</v>
+        <v>0.07616901052101355</v>
       </c>
       <c r="N25">
-        <v>0.3033253903014383</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.215257368081694</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.3092662025590016</v>
       </c>
       <c r="Q25">
-        <v>1.157416062986684</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.065766002042039</v>
       </c>
     </row>
   </sheetData>
